--- a/HNSCC_OS_marginS_candidates_Bonferroni.xlsx
+++ b/HNSCC_OS_marginS_candidates_Bonferroni.xlsx
@@ -12,18 +12,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="89">
   <si>
     <t>Reported by Tex Li-Hsing Chi. 
 tex@gate.sinica.edu.tw 
 Cohort with surgical margins status (0 or 1)
-2020-03-04</t>
+2020-03-08</t>
   </si>
   <si>
     <t xml:space="preserve">  </t>
   </si>
   <si>
-    <t xml:space="preserve">Table 1. The 9 candiate genes overexpressed in HNSCC (ranked by Bonferroni corrected Kaplan Meier P-value, and Cox's uni/multivariate model) 
+    <t xml:space="preserve">Table 1. The 10 candiate genes overexpressed and worsed prognosis in HNSCC (ranked by Bonferroni corrected Kaplan Meier P-value) 
 </t>
   </si>
   <si>
@@ -36,9 +36,6 @@
     <t>Bonferroni P_value</t>
   </si>
   <si>
-    <t>FDR P_value</t>
-  </si>
-  <si>
     <t>uni_HR</t>
   </si>
   <si>
@@ -51,129 +48,247 @@
     <t>multi_P_value</t>
   </si>
   <si>
-    <t>8363</t>
-  </si>
-  <si>
-    <t>6286</t>
-  </si>
-  <si>
-    <t>9786</t>
-  </si>
-  <si>
-    <t>5735</t>
-  </si>
-  <si>
-    <t>8988</t>
-  </si>
-  <si>
-    <t>6044</t>
-  </si>
-  <si>
-    <t>7288</t>
-  </si>
-  <si>
-    <t>9157</t>
-  </si>
-  <si>
-    <t>11198</t>
-  </si>
-  <si>
-    <t>IL19</t>
-  </si>
-  <si>
-    <t>FCGBP</t>
-  </si>
-  <si>
-    <t>LOC148709</t>
-  </si>
-  <si>
-    <t>EVPLL</t>
-  </si>
-  <si>
-    <t>KIAA1683</t>
-  </si>
-  <si>
-    <t>FAM3D</t>
-  </si>
-  <si>
-    <t>GPR15</t>
-  </si>
-  <si>
-    <t>KLRA1</t>
-  </si>
-  <si>
-    <t>MS4A1</t>
-  </si>
-  <si>
-    <t>3.73e-07</t>
-  </si>
-  <si>
-    <t>1.21e-06</t>
-  </si>
-  <si>
-    <t>1.51e-06</t>
-  </si>
-  <si>
-    <t>1.98e-06</t>
-  </si>
-  <si>
-    <t>3.08e-06</t>
-  </si>
-  <si>
-    <t>3.62e-06</t>
-  </si>
-  <si>
-    <t>3.67e-06</t>
-  </si>
-  <si>
-    <t>3.83e-06</t>
-  </si>
-  <si>
-    <t>7.07e-06</t>
+    <t>4952</t>
+  </si>
+  <si>
+    <t>2896</t>
+  </si>
+  <si>
+    <t>17346</t>
+  </si>
+  <si>
+    <t>13274</t>
+  </si>
+  <si>
+    <t>17479</t>
+  </si>
+  <si>
+    <t>19214</t>
+  </si>
+  <si>
+    <t>11664</t>
+  </si>
+  <si>
+    <t>6566</t>
+  </si>
+  <si>
+    <t>17355</t>
+  </si>
+  <si>
+    <t>4939</t>
+  </si>
+  <si>
+    <t>DKK1</t>
+  </si>
+  <si>
+    <t>CAMK2N1</t>
+  </si>
+  <si>
+    <t>STC2</t>
+  </si>
+  <si>
+    <t>PGK1</t>
+  </si>
+  <si>
+    <t>SURF4</t>
+  </si>
+  <si>
+    <t>USP10</t>
+  </si>
+  <si>
+    <t>NDFIP1</t>
+  </si>
+  <si>
+    <t>FOXA2</t>
+  </si>
+  <si>
+    <t>STIP1</t>
+  </si>
+  <si>
+    <t>DKC1</t>
+  </si>
+  <si>
+    <t>8.90e-08</t>
+  </si>
+  <si>
+    <t>2.97e-07</t>
+  </si>
+  <si>
+    <t>6.54e-07</t>
+  </si>
+  <si>
+    <t>9.11e-07</t>
+  </si>
+  <si>
+    <t>9.64e-07</t>
+  </si>
+  <si>
+    <t>1.77e-06</t>
+  </si>
+  <si>
+    <t>2.62e-06</t>
+  </si>
+  <si>
+    <t>2.69e-06</t>
+  </si>
+  <si>
+    <t>4.32e-06</t>
+  </si>
+  <si>
+    <t>6.30e-06</t>
+  </si>
+  <si>
+    <t>0.001</t>
   </si>
   <si>
     <t>0.002</t>
   </si>
   <si>
-    <t>0.008</t>
-  </si>
-  <si>
-    <t>0.010</t>
-  </si>
-  <si>
-    <t>0.013</t>
-  </si>
-  <si>
-    <t>0.020</t>
-  </si>
-  <si>
-    <t>0.024</t>
-  </si>
-  <si>
-    <t>0.025</t>
-  </si>
-  <si>
-    <t>0.047</t>
-  </si>
-  <si>
-    <t>0.0004</t>
-  </si>
-  <si>
-    <t>0.0008</t>
-  </si>
-  <si>
-    <t>0.0009</t>
-  </si>
-  <si>
-    <t>0.0010</t>
-  </si>
-  <si>
-    <t>0.0014</t>
+    <t>0.004</t>
+  </si>
+  <si>
+    <t>0.006</t>
+  </si>
+  <si>
+    <t>0.012</t>
+  </si>
+  <si>
+    <t>0.017</t>
+  </si>
+  <si>
+    <t>0.018</t>
+  </si>
+  <si>
+    <t>0.029</t>
+  </si>
+  <si>
+    <t>0.042</t>
   </si>
   <si>
     <t>Selection criteria: 
  Bonferroni KM P-value &lt; 0.05 
- Cox's multivariate HR &gt; 1.5</t>
+ Cox's univariate &amp; multivariate HR &gt;= 1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table 2. The 10 candiate genes overexpressed and better prognosis in HNSCC (ranked by Bonferroni corrected Kaplan Meier P-value) 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table 2. The 10 candiate genes overexpressed with better prognosis in HNSCC (ranked by Bonferroni corrected Kaplan Meier P-value) 
+</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>ZNF557</t>
+  </si>
+  <si>
+    <t>ZNF266</t>
+  </si>
+  <si>
+    <t>IL19</t>
+  </si>
+  <si>
+    <t>MYO1H</t>
+  </si>
+  <si>
+    <t>FCGBP</t>
+  </si>
+  <si>
+    <t>LOC148709</t>
+  </si>
+  <si>
+    <t>EVPLL</t>
+  </si>
+  <si>
+    <t>PNMA5</t>
+  </si>
+  <si>
+    <t>KIAA1683</t>
+  </si>
+  <si>
+    <t>NPB</t>
+  </si>
+  <si>
+    <t>8.64e-08</t>
+  </si>
+  <si>
+    <t>2.17e-07</t>
+  </si>
+  <si>
+    <t>3.73e-07</t>
+  </si>
+  <si>
+    <t>3.82e-07</t>
+  </si>
+  <si>
+    <t>1.21e-06</t>
+  </si>
+  <si>
+    <t>1.51e-06</t>
+  </si>
+  <si>
+    <t>1.98e-06</t>
+  </si>
+  <si>
+    <t>2.60e-06</t>
+  </si>
+  <si>
+    <t>3.08e-06</t>
+  </si>
+  <si>
+    <t>4.04e-06</t>
+  </si>
+  <si>
+    <t>0.003</t>
+  </si>
+  <si>
+    <t>0.008</t>
+  </si>
+  <si>
+    <t>0.010</t>
+  </si>
+  <si>
+    <t>0.013</t>
+  </si>
+  <si>
+    <t>0.020</t>
+  </si>
+  <si>
+    <t>0.027</t>
+  </si>
+  <si>
+    <t>Selection criteria: 
+ Bonferroni KM P-value &lt; 0.05 
+ Cox's univariate &amp; multivariate HR &lt;= 0.5</t>
   </si>
 </sst>
 </file>
@@ -181,7 +296,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="19">
+  <fonts count="40">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -254,6 +369,139 @@
       <name val="Calibri"/>
       <sz val="12.0"/>
       <color rgb="00008B"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="00008B"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="00008B"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="00008B"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="00008B"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="00008B"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="00008B"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="00008B"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="22.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <i val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="00008B"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="00008B"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -338,7 +586,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -374,10 +622,55 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="justify" vertical="center" wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="justify" vertical="center" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -394,10 +687,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>9532</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>8</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -415,7 +708,45 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="5495925" cy="4400550"/>
+          <a:ext cx="6705600" cy="5857875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>388938</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="6924675" cy="5857875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -444,7 +775,6 @@
     <col min="7" max="7" width="14.0" customWidth="true"/>
     <col min="8" max="8" width="14.0" customWidth="true"/>
     <col min="9" max="9" width="14.0" customWidth="true"/>
-    <col min="10" max="10" width="14.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -640,284 +970,275 @@
       <c r="I35" t="s" s="21">
         <v>9</v>
       </c>
-      <c r="J35" t="s" s="21">
-        <v>10</v>
-      </c>
     </row>
     <row r="36">
       <c r="B36" t="s" s="17">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C36" t="s" s="22">
         <v>20</v>
       </c>
       <c r="D36" t="s" s="23">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E36" t="s" s="24">
-        <v>38</v>
-      </c>
-      <c r="F36" t="s" s="25">
-        <v>46</v>
+        <v>40</v>
+      </c>
+      <c r="F36" t="n" s="25">
+        <v>2.266</v>
       </c>
       <c r="G36" t="n" s="26">
-        <v>1.364</v>
+        <v>0.001</v>
       </c>
       <c r="H36" t="n" s="27">
-        <v>0.044</v>
+        <v>2.135</v>
       </c>
       <c r="I36" t="n" s="28">
-        <v>1.62</v>
-      </c>
-      <c r="J36" t="n" s="29">
-        <v>0.003</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="37">
       <c r="B37" t="s" s="17">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C37" t="s" s="22">
         <v>21</v>
       </c>
       <c r="D37" t="s" s="23">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E37" t="s" s="24">
-        <v>39</v>
-      </c>
-      <c r="F37" t="s" s="25">
-        <v>47</v>
+        <v>41</v>
+      </c>
+      <c r="F37" t="n" s="25">
+        <v>2.101</v>
       </c>
       <c r="G37" t="n" s="26">
-        <v>1.364</v>
+        <v>0.001</v>
       </c>
       <c r="H37" t="n" s="27">
-        <v>0.044</v>
+        <v>2.007</v>
       </c>
       <c r="I37" t="n" s="28">
-        <v>1.502</v>
-      </c>
-      <c r="J37" t="n" s="29">
-        <v>0.014</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="38">
       <c r="B38" t="s" s="17">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C38" t="s" s="22">
         <v>22</v>
       </c>
       <c r="D38" t="s" s="23">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E38" t="s" s="24">
-        <v>40</v>
-      </c>
-      <c r="F38" t="s" s="25">
-        <v>48</v>
+        <v>42</v>
+      </c>
+      <c r="F38" t="n" s="25">
+        <v>2.147</v>
       </c>
       <c r="G38" t="n" s="26">
-        <v>1.364</v>
+        <v>0.001</v>
       </c>
       <c r="H38" t="n" s="27">
-        <v>0.044</v>
+        <v>2.075</v>
       </c>
       <c r="I38" t="n" s="28">
-        <v>1.596</v>
-      </c>
-      <c r="J38" t="n" s="29">
-        <v>0.005</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="39">
       <c r="B39" t="s" s="17">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C39" t="s" s="22">
         <v>23</v>
       </c>
       <c r="D39" t="s" s="23">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E39" t="s" s="24">
-        <v>41</v>
-      </c>
-      <c r="F39" t="s" s="25">
-        <v>49</v>
+        <v>43</v>
+      </c>
+      <c r="F39" t="n" s="25">
+        <v>2.127</v>
       </c>
       <c r="G39" t="n" s="26">
-        <v>1.364</v>
+        <v>0.001</v>
       </c>
       <c r="H39" t="n" s="27">
-        <v>0.044</v>
+        <v>2.046</v>
       </c>
       <c r="I39" t="n" s="28">
-        <v>1.505</v>
-      </c>
-      <c r="J39" t="n" s="29">
-        <v>0.012</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="40">
       <c r="B40" t="s" s="17">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C40" t="s" s="22">
         <v>24</v>
       </c>
       <c r="D40" t="s" s="23">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E40" t="s" s="24">
-        <v>42</v>
-      </c>
-      <c r="F40" t="s" s="25">
-        <v>49</v>
+        <v>43</v>
+      </c>
+      <c r="F40" t="n" s="25">
+        <v>2.055</v>
       </c>
       <c r="G40" t="n" s="26">
-        <v>1.364</v>
+        <v>0.001</v>
       </c>
       <c r="H40" t="n" s="27">
-        <v>0.044</v>
+        <v>2.089</v>
       </c>
       <c r="I40" t="n" s="28">
-        <v>1.584</v>
-      </c>
-      <c r="J40" t="n" s="29">
-        <v>0.006</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="41">
       <c r="B41" t="s" s="17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C41" t="s" s="22">
         <v>25</v>
       </c>
       <c r="D41" t="s" s="23">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E41" t="s" s="24">
-        <v>43</v>
-      </c>
-      <c r="F41" t="s" s="25">
-        <v>49</v>
+        <v>44</v>
+      </c>
+      <c r="F41" t="n" s="25">
+        <v>2.083</v>
       </c>
       <c r="G41" t="n" s="26">
-        <v>1.364</v>
+        <v>0.001</v>
       </c>
       <c r="H41" t="n" s="27">
-        <v>0.044</v>
+        <v>2.119</v>
       </c>
       <c r="I41" t="n" s="28">
-        <v>1.615</v>
-      </c>
-      <c r="J41" t="n" s="29">
-        <v>0.003</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="42">
       <c r="B42" t="s" s="17">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C42" t="s" s="22">
         <v>26</v>
       </c>
       <c r="D42" t="s" s="23">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E42" t="s" s="24">
-        <v>43</v>
-      </c>
-      <c r="F42" t="s" s="25">
-        <v>49</v>
+        <v>45</v>
+      </c>
+      <c r="F42" t="n" s="25">
+        <v>2.031</v>
       </c>
       <c r="G42" t="n" s="26">
-        <v>1.364</v>
+        <v>0.001</v>
       </c>
       <c r="H42" t="n" s="27">
-        <v>0.044</v>
+        <v>2.027</v>
       </c>
       <c r="I42" t="n" s="28">
-        <v>1.705</v>
-      </c>
-      <c r="J42" t="n" s="29">
-        <v>0.002</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="43">
       <c r="B43" t="s" s="17">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C43" t="s" s="22">
         <v>27</v>
       </c>
       <c r="D43" t="s" s="23">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E43" t="s" s="24">
-        <v>44</v>
-      </c>
-      <c r="F43" t="s" s="25">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="F43" t="n" s="25">
+        <v>1.976</v>
       </c>
       <c r="G43" t="n" s="26">
-        <v>1.364</v>
+        <v>0.001</v>
       </c>
       <c r="H43" t="n" s="27">
-        <v>0.044</v>
+        <v>1.914</v>
       </c>
       <c r="I43" t="n" s="28">
-        <v>1.568</v>
-      </c>
-      <c r="J43" t="n" s="29">
-        <v>0.007</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="44">
       <c r="B44" t="s" s="17">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C44" t="s" s="22">
         <v>28</v>
       </c>
       <c r="D44" t="s" s="23">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E44" t="s" s="24">
-        <v>45</v>
-      </c>
-      <c r="F44" t="s" s="25">
-        <v>50</v>
+        <v>47</v>
+      </c>
+      <c r="F44" t="n" s="25">
+        <v>1.958</v>
       </c>
       <c r="G44" t="n" s="26">
-        <v>1.364</v>
+        <v>0.001</v>
       </c>
       <c r="H44" t="n" s="27">
-        <v>0.044</v>
+        <v>1.957</v>
       </c>
       <c r="I44" t="n" s="28">
-        <v>1.531</v>
-      </c>
-      <c r="J44" t="n" s="29">
-        <v>0.01</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s">
-        <v>1</v>
+      <c r="B45" t="s" s="17">
+        <v>19</v>
+      </c>
+      <c r="C45" t="s" s="22">
+        <v>29</v>
+      </c>
+      <c r="D45" t="s" s="23">
+        <v>39</v>
+      </c>
+      <c r="E45" t="s" s="24">
+        <v>48</v>
+      </c>
+      <c r="F45" t="n" s="25">
+        <v>2.046</v>
+      </c>
+      <c r="G45" t="n" s="26">
+        <v>0.001</v>
+      </c>
+      <c r="H45" t="n" s="27">
+        <v>1.837</v>
+      </c>
+      <c r="I45" t="n" s="28">
+        <v>0.0</v>
       </c>
     </row>
     <row r="46">
-      <c r="B46" t="s" s="32">
-        <v>51</v>
+      <c r="A46" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="s">
-        <v>1</v>
+      <c r="B47" t="s" s="31">
+        <v>49</v>
       </c>
     </row>
     <row r="48">
@@ -957,13 +1278,493 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" t="s" s="41">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" t="s" s="53">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59"/>
+      <c r="C59" t="s" s="61">
+        <v>3</v>
+      </c>
+      <c r="D59" t="s" s="61">
+        <v>4</v>
+      </c>
+      <c r="E59" t="s" s="61">
+        <v>5</v>
+      </c>
+      <c r="F59" t="s" s="61">
+        <v>6</v>
+      </c>
+      <c r="G59" t="s" s="61">
+        <v>7</v>
+      </c>
+      <c r="H59" t="s" s="61">
+        <v>8</v>
+      </c>
+      <c r="I59" t="s" s="61">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="B60" t="s" s="57">
+        <v>52</v>
+      </c>
+      <c r="C60" t="s" s="62">
+        <v>62</v>
+      </c>
+      <c r="D60" t="s" s="63">
+        <v>72</v>
+      </c>
+      <c r="E60" t="s" s="64">
+        <v>40</v>
+      </c>
+      <c r="F60" t="n" s="65">
+        <v>0.465</v>
+      </c>
+      <c r="G60" t="n" s="66">
+        <v>0.001</v>
+      </c>
+      <c r="H60" t="n" s="67">
+        <v>0.499</v>
+      </c>
+      <c r="I60" t="n" s="68">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="B61" t="s" s="57">
+        <v>53</v>
+      </c>
+      <c r="C61" t="s" s="62">
+        <v>63</v>
+      </c>
+      <c r="D61" t="s" s="63">
+        <v>73</v>
+      </c>
+      <c r="E61" t="s" s="64">
+        <v>40</v>
+      </c>
+      <c r="F61" t="n" s="65">
+        <v>0.474</v>
+      </c>
+      <c r="G61" t="n" s="66">
+        <v>0.001</v>
+      </c>
+      <c r="H61" t="n" s="67">
+        <v>0.453</v>
+      </c>
+      <c r="I61" t="n" s="68">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" t="s" s="57">
+        <v>54</v>
+      </c>
+      <c r="C62" t="s" s="62">
+        <v>64</v>
+      </c>
+      <c r="D62" t="s" s="63">
+        <v>74</v>
+      </c>
+      <c r="E62" t="s" s="64">
+        <v>41</v>
+      </c>
+      <c r="F62" t="n" s="65">
+        <v>0.472</v>
+      </c>
+      <c r="G62" t="n" s="66">
+        <v>0.001</v>
+      </c>
+      <c r="H62" t="n" s="67">
+        <v>0.459</v>
+      </c>
+      <c r="I62" t="n" s="68">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" t="s" s="57">
+        <v>55</v>
+      </c>
+      <c r="C63" t="s" s="62">
+        <v>65</v>
+      </c>
+      <c r="D63" t="s" s="63">
+        <v>75</v>
+      </c>
+      <c r="E63" t="s" s="64">
+        <v>82</v>
+      </c>
+      <c r="F63" t="n" s="65">
+        <v>0.468</v>
+      </c>
+      <c r="G63" t="n" s="66">
+        <v>0.001</v>
+      </c>
+      <c r="H63" t="n" s="67">
+        <v>0.467</v>
+      </c>
+      <c r="I63" t="n" s="68">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="B64" t="s" s="57">
+        <v>56</v>
+      </c>
+      <c r="C64" t="s" s="62">
+        <v>66</v>
+      </c>
+      <c r="D64" t="s" s="63">
+        <v>76</v>
+      </c>
+      <c r="E64" t="s" s="64">
+        <v>83</v>
+      </c>
+      <c r="F64" t="n" s="65">
+        <v>0.484</v>
+      </c>
+      <c r="G64" t="n" s="66">
+        <v>0.001</v>
+      </c>
+      <c r="H64" t="n" s="67">
+        <v>0.496</v>
+      </c>
+      <c r="I64" t="n" s="68">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="B65" t="s" s="57">
+        <v>57</v>
+      </c>
+      <c r="C65" t="s" s="62">
+        <v>67</v>
+      </c>
+      <c r="D65" t="s" s="63">
+        <v>77</v>
+      </c>
+      <c r="E65" t="s" s="64">
+        <v>84</v>
+      </c>
+      <c r="F65" t="n" s="65">
+        <v>0.499</v>
+      </c>
+      <c r="G65" t="n" s="66">
+        <v>0.001</v>
+      </c>
+      <c r="H65" t="n" s="67">
+        <v>0.485</v>
+      </c>
+      <c r="I65" t="n" s="68">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="B66" t="s" s="57">
+        <v>58</v>
+      </c>
+      <c r="C66" t="s" s="62">
+        <v>68</v>
+      </c>
+      <c r="D66" t="s" s="63">
+        <v>78</v>
+      </c>
+      <c r="E66" t="s" s="64">
+        <v>85</v>
+      </c>
+      <c r="F66" t="n" s="65">
+        <v>0.49</v>
+      </c>
+      <c r="G66" t="n" s="66">
+        <v>0.001</v>
+      </c>
+      <c r="H66" t="n" s="67">
+        <v>0.494</v>
+      </c>
+      <c r="I66" t="n" s="68">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="B67" t="s" s="57">
+        <v>59</v>
+      </c>
+      <c r="C67" t="s" s="62">
+        <v>69</v>
+      </c>
+      <c r="D67" t="s" s="63">
+        <v>79</v>
+      </c>
+      <c r="E67" t="s" s="64">
+        <v>45</v>
+      </c>
+      <c r="F67" t="n" s="65">
+        <v>0.499</v>
+      </c>
+      <c r="G67" t="n" s="66">
+        <v>0.001</v>
+      </c>
+      <c r="H67" t="n" s="67">
+        <v>0.481</v>
+      </c>
+      <c r="I67" t="n" s="68">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="B68" t="s" s="57">
+        <v>60</v>
+      </c>
+      <c r="C68" t="s" s="62">
+        <v>70</v>
+      </c>
+      <c r="D68" t="s" s="63">
+        <v>80</v>
+      </c>
+      <c r="E68" t="s" s="64">
+        <v>86</v>
+      </c>
+      <c r="F68" t="n" s="65">
+        <v>0.5</v>
+      </c>
+      <c r="G68" t="n" s="66">
+        <v>0.001</v>
+      </c>
+      <c r="H68" t="n" s="67">
+        <v>0.483</v>
+      </c>
+      <c r="I68" t="n" s="68">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="B69" t="s" s="57">
+        <v>61</v>
+      </c>
+      <c r="C69" t="s" s="62">
+        <v>71</v>
+      </c>
+      <c r="D69" t="s" s="63">
+        <v>81</v>
+      </c>
+      <c r="E69" t="s" s="64">
+        <v>87</v>
+      </c>
+      <c r="F69" t="n" s="65">
+        <v>0.46</v>
+      </c>
+      <c r="G69" t="n" s="66">
+        <v>0.001</v>
+      </c>
+      <c r="H69" t="n" s="67">
+        <v>0.457</v>
+      </c>
+      <c r="I69" t="n" s="68">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="B71" t="s" s="71">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="B1:F4"/>
-    <mergeCell ref="B46:D49"/>
+    <mergeCell ref="B47:E50"/>
+    <mergeCell ref="B71:E74"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>

--- a/HNSCC_OS_marginS_candidates_Bonferroni.xlsx
+++ b/HNSCC_OS_marginS_candidates_Bonferroni.xlsx
@@ -12,18 +12,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="88">
   <si>
     <t>Reported by Tex Li-Hsing Chi. 
 tex@gate.sinica.edu.tw 
 Cohort with surgical margins status (0 or 1)
-2020-03-08</t>
+2020-03-12</t>
   </si>
   <si>
     <t xml:space="preserve">  </t>
   </si>
   <si>
-    <t xml:space="preserve">Table 1. The 10 candiate genes overexpressed and worsed prognosis in HNSCC (ranked by Bonferroni corrected Kaplan Meier P-value) 
+    <t xml:space="preserve">Table 1. The 10 candiate genes overexpressed with poor prognosis in HNSCC (ranked by Bonferroni corrected Kaplan Meier P-value) 
 </t>
   </si>
   <si>
@@ -168,10 +168,6 @@
     <t>Selection criteria: 
  Bonferroni KM P-value &lt; 0.05 
  Cox's univariate &amp; multivariate HR &gt;= 1.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Table 2. The 10 candiate genes overexpressed and better prognosis in HNSCC (ranked by Bonferroni corrected Kaplan Meier P-value) 
-</t>
   </si>
   <si>
     <t xml:space="preserve">Table 2. The 10 candiate genes overexpressed with better prognosis in HNSCC (ranked by Bonferroni corrected Kaplan Meier P-value) 
@@ -296,7 +292,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="40">
+  <fonts count="34">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -404,49 +400,6 @@
       <name val="Calibri"/>
       <sz val="14.0"/>
       <color rgb="00008B"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="22.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="18.0"/>
-      <color rgb="000000"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="16.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="16.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <i val="true"/>
-      <u val="none"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -586,7 +539,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -643,34 +596,22 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="justify" vertical="center" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -721,14 +662,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>388938</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>875166</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -746,7 +687,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6924675" cy="5857875"/>
+          <a:ext cx="5543550" cy="4648200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1292,302 +1233,302 @@
       </c>
     </row>
     <row r="58">
-      <c r="B58" t="s" s="53">
+      <c r="B58"/>
+      <c r="C58" t="s" s="49">
+        <v>3</v>
+      </c>
+      <c r="D58" t="s" s="49">
+        <v>4</v>
+      </c>
+      <c r="E58" t="s" s="49">
+        <v>5</v>
+      </c>
+      <c r="F58" t="s" s="49">
+        <v>6</v>
+      </c>
+      <c r="G58" t="s" s="49">
+        <v>7</v>
+      </c>
+      <c r="H58" t="s" s="49">
+        <v>8</v>
+      </c>
+      <c r="I58" t="s" s="49">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" t="s" s="45">
         <v>51</v>
       </c>
-    </row>
-    <row r="59">
-      <c r="B59"/>
-      <c r="C59" t="s" s="61">
-        <v>3</v>
-      </c>
-      <c r="D59" t="s" s="61">
-        <v>4</v>
-      </c>
-      <c r="E59" t="s" s="61">
-        <v>5</v>
-      </c>
-      <c r="F59" t="s" s="61">
-        <v>6</v>
-      </c>
-      <c r="G59" t="s" s="61">
-        <v>7</v>
-      </c>
-      <c r="H59" t="s" s="61">
-        <v>8</v>
-      </c>
-      <c r="I59" t="s" s="61">
-        <v>9</v>
+      <c r="C59" t="s" s="50">
+        <v>61</v>
+      </c>
+      <c r="D59" t="s" s="51">
+        <v>71</v>
+      </c>
+      <c r="E59" t="s" s="52">
+        <v>40</v>
+      </c>
+      <c r="F59" t="n" s="53">
+        <v>0.465</v>
+      </c>
+      <c r="G59" t="n" s="54">
+        <v>0.001</v>
+      </c>
+      <c r="H59" t="n" s="55">
+        <v>0.499</v>
+      </c>
+      <c r="I59" t="n" s="56">
+        <v>0.0</v>
       </c>
     </row>
     <row r="60">
-      <c r="B60" t="s" s="57">
+      <c r="B60" t="s" s="45">
         <v>52</v>
       </c>
-      <c r="C60" t="s" s="62">
+      <c r="C60" t="s" s="50">
         <v>62</v>
       </c>
-      <c r="D60" t="s" s="63">
+      <c r="D60" t="s" s="51">
         <v>72</v>
       </c>
-      <c r="E60" t="s" s="64">
+      <c r="E60" t="s" s="52">
         <v>40</v>
       </c>
-      <c r="F60" t="n" s="65">
-        <v>0.465</v>
-      </c>
-      <c r="G60" t="n" s="66">
-        <v>0.001</v>
-      </c>
-      <c r="H60" t="n" s="67">
+      <c r="F60" t="n" s="53">
+        <v>0.474</v>
+      </c>
+      <c r="G60" t="n" s="54">
+        <v>0.001</v>
+      </c>
+      <c r="H60" t="n" s="55">
+        <v>0.453</v>
+      </c>
+      <c r="I60" t="n" s="56">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="B61" t="s" s="45">
+        <v>53</v>
+      </c>
+      <c r="C61" t="s" s="50">
+        <v>63</v>
+      </c>
+      <c r="D61" t="s" s="51">
+        <v>73</v>
+      </c>
+      <c r="E61" t="s" s="52">
+        <v>41</v>
+      </c>
+      <c r="F61" t="n" s="53">
+        <v>0.472</v>
+      </c>
+      <c r="G61" t="n" s="54">
+        <v>0.001</v>
+      </c>
+      <c r="H61" t="n" s="55">
+        <v>0.459</v>
+      </c>
+      <c r="I61" t="n" s="56">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" t="s" s="45">
+        <v>54</v>
+      </c>
+      <c r="C62" t="s" s="50">
+        <v>64</v>
+      </c>
+      <c r="D62" t="s" s="51">
+        <v>74</v>
+      </c>
+      <c r="E62" t="s" s="52">
+        <v>81</v>
+      </c>
+      <c r="F62" t="n" s="53">
+        <v>0.468</v>
+      </c>
+      <c r="G62" t="n" s="54">
+        <v>0.001</v>
+      </c>
+      <c r="H62" t="n" s="55">
+        <v>0.467</v>
+      </c>
+      <c r="I62" t="n" s="56">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" t="s" s="45">
+        <v>55</v>
+      </c>
+      <c r="C63" t="s" s="50">
+        <v>65</v>
+      </c>
+      <c r="D63" t="s" s="51">
+        <v>75</v>
+      </c>
+      <c r="E63" t="s" s="52">
+        <v>82</v>
+      </c>
+      <c r="F63" t="n" s="53">
+        <v>0.484</v>
+      </c>
+      <c r="G63" t="n" s="54">
+        <v>0.001</v>
+      </c>
+      <c r="H63" t="n" s="55">
+        <v>0.496</v>
+      </c>
+      <c r="I63" t="n" s="56">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="B64" t="s" s="45">
+        <v>56</v>
+      </c>
+      <c r="C64" t="s" s="50">
+        <v>66</v>
+      </c>
+      <c r="D64" t="s" s="51">
+        <v>76</v>
+      </c>
+      <c r="E64" t="s" s="52">
+        <v>83</v>
+      </c>
+      <c r="F64" t="n" s="53">
         <v>0.499</v>
       </c>
-      <c r="I60" t="n" s="68">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="B61" t="s" s="57">
-        <v>53</v>
-      </c>
-      <c r="C61" t="s" s="62">
-        <v>63</v>
-      </c>
-      <c r="D61" t="s" s="63">
-        <v>73</v>
-      </c>
-      <c r="E61" t="s" s="64">
-        <v>40</v>
-      </c>
-      <c r="F61" t="n" s="65">
-        <v>0.474</v>
-      </c>
-      <c r="G61" t="n" s="66">
-        <v>0.001</v>
-      </c>
-      <c r="H61" t="n" s="67">
-        <v>0.453</v>
-      </c>
-      <c r="I61" t="n" s="68">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="B62" t="s" s="57">
-        <v>54</v>
-      </c>
-      <c r="C62" t="s" s="62">
-        <v>64</v>
-      </c>
-      <c r="D62" t="s" s="63">
-        <v>74</v>
-      </c>
-      <c r="E62" t="s" s="64">
-        <v>41</v>
-      </c>
-      <c r="F62" t="n" s="65">
-        <v>0.472</v>
-      </c>
-      <c r="G62" t="n" s="66">
-        <v>0.001</v>
-      </c>
-      <c r="H62" t="n" s="67">
-        <v>0.459</v>
-      </c>
-      <c r="I62" t="n" s="68">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="B63" t="s" s="57">
-        <v>55</v>
-      </c>
-      <c r="C63" t="s" s="62">
-        <v>65</v>
-      </c>
-      <c r="D63" t="s" s="63">
-        <v>75</v>
-      </c>
-      <c r="E63" t="s" s="64">
-        <v>82</v>
-      </c>
-      <c r="F63" t="n" s="65">
-        <v>0.468</v>
-      </c>
-      <c r="G63" t="n" s="66">
-        <v>0.001</v>
-      </c>
-      <c r="H63" t="n" s="67">
-        <v>0.467</v>
-      </c>
-      <c r="I63" t="n" s="68">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="B64" t="s" s="57">
-        <v>56</v>
-      </c>
-      <c r="C64" t="s" s="62">
-        <v>66</v>
-      </c>
-      <c r="D64" t="s" s="63">
-        <v>76</v>
-      </c>
-      <c r="E64" t="s" s="64">
-        <v>83</v>
-      </c>
-      <c r="F64" t="n" s="65">
-        <v>0.484</v>
-      </c>
-      <c r="G64" t="n" s="66">
-        <v>0.001</v>
-      </c>
-      <c r="H64" t="n" s="67">
-        <v>0.496</v>
-      </c>
-      <c r="I64" t="n" s="68">
+      <c r="G64" t="n" s="54">
+        <v>0.001</v>
+      </c>
+      <c r="H64" t="n" s="55">
+        <v>0.485</v>
+      </c>
+      <c r="I64" t="n" s="56">
         <v>0.0</v>
       </c>
     </row>
     <row r="65">
-      <c r="B65" t="s" s="57">
+      <c r="B65" t="s" s="45">
         <v>57</v>
       </c>
-      <c r="C65" t="s" s="62">
+      <c r="C65" t="s" s="50">
         <v>67</v>
       </c>
-      <c r="D65" t="s" s="63">
+      <c r="D65" t="s" s="51">
         <v>77</v>
       </c>
-      <c r="E65" t="s" s="64">
+      <c r="E65" t="s" s="52">
         <v>84</v>
       </c>
-      <c r="F65" t="n" s="65">
+      <c r="F65" t="n" s="53">
+        <v>0.49</v>
+      </c>
+      <c r="G65" t="n" s="54">
+        <v>0.001</v>
+      </c>
+      <c r="H65" t="n" s="55">
+        <v>0.494</v>
+      </c>
+      <c r="I65" t="n" s="56">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="B66" t="s" s="45">
+        <v>58</v>
+      </c>
+      <c r="C66" t="s" s="50">
+        <v>68</v>
+      </c>
+      <c r="D66" t="s" s="51">
+        <v>78</v>
+      </c>
+      <c r="E66" t="s" s="52">
+        <v>45</v>
+      </c>
+      <c r="F66" t="n" s="53">
         <v>0.499</v>
       </c>
-      <c r="G65" t="n" s="66">
-        <v>0.001</v>
-      </c>
-      <c r="H65" t="n" s="67">
-        <v>0.485</v>
-      </c>
-      <c r="I65" t="n" s="68">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="B66" t="s" s="57">
-        <v>58</v>
-      </c>
-      <c r="C66" t="s" s="62">
-        <v>68</v>
-      </c>
-      <c r="D66" t="s" s="63">
-        <v>78</v>
-      </c>
-      <c r="E66" t="s" s="64">
+      <c r="G66" t="n" s="54">
+        <v>0.001</v>
+      </c>
+      <c r="H66" t="n" s="55">
+        <v>0.481</v>
+      </c>
+      <c r="I66" t="n" s="56">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="B67" t="s" s="45">
+        <v>59</v>
+      </c>
+      <c r="C67" t="s" s="50">
+        <v>69</v>
+      </c>
+      <c r="D67" t="s" s="51">
+        <v>79</v>
+      </c>
+      <c r="E67" t="s" s="52">
         <v>85</v>
       </c>
-      <c r="F66" t="n" s="65">
-        <v>0.49</v>
-      </c>
-      <c r="G66" t="n" s="66">
-        <v>0.001</v>
-      </c>
-      <c r="H66" t="n" s="67">
-        <v>0.494</v>
-      </c>
-      <c r="I66" t="n" s="68">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="B67" t="s" s="57">
-        <v>59</v>
-      </c>
-      <c r="C67" t="s" s="62">
-        <v>69</v>
-      </c>
-      <c r="D67" t="s" s="63">
-        <v>79</v>
-      </c>
-      <c r="E67" t="s" s="64">
-        <v>45</v>
-      </c>
-      <c r="F67" t="n" s="65">
-        <v>0.499</v>
-      </c>
-      <c r="G67" t="n" s="66">
-        <v>0.001</v>
-      </c>
-      <c r="H67" t="n" s="67">
-        <v>0.481</v>
-      </c>
-      <c r="I67" t="n" s="68">
+      <c r="F67" t="n" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="G67" t="n" s="54">
+        <v>0.001</v>
+      </c>
+      <c r="H67" t="n" s="55">
+        <v>0.483</v>
+      </c>
+      <c r="I67" t="n" s="56">
         <v>0.0</v>
       </c>
     </row>
     <row r="68">
-      <c r="B68" t="s" s="57">
+      <c r="B68" t="s" s="45">
         <v>60</v>
       </c>
-      <c r="C68" t="s" s="62">
+      <c r="C68" t="s" s="50">
         <v>70</v>
       </c>
-      <c r="D68" t="s" s="63">
+      <c r="D68" t="s" s="51">
         <v>80</v>
       </c>
-      <c r="E68" t="s" s="64">
+      <c r="E68" t="s" s="52">
         <v>86</v>
       </c>
-      <c r="F68" t="n" s="65">
-        <v>0.5</v>
-      </c>
-      <c r="G68" t="n" s="66">
-        <v>0.001</v>
-      </c>
-      <c r="H68" t="n" s="67">
-        <v>0.483</v>
-      </c>
-      <c r="I68" t="n" s="68">
+      <c r="F68" t="n" s="53">
+        <v>0.46</v>
+      </c>
+      <c r="G68" t="n" s="54">
+        <v>0.001</v>
+      </c>
+      <c r="H68" t="n" s="55">
+        <v>0.457</v>
+      </c>
+      <c r="I68" t="n" s="56">
         <v>0.0</v>
       </c>
     </row>
     <row r="69">
-      <c r="B69" t="s" s="57">
-        <v>61</v>
-      </c>
-      <c r="C69" t="s" s="62">
-        <v>71</v>
-      </c>
-      <c r="D69" t="s" s="63">
-        <v>81</v>
-      </c>
-      <c r="E69" t="s" s="64">
+      <c r="A69" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="B70" t="s" s="59">
         <v>87</v>
       </c>
-      <c r="F69" t="n" s="65">
-        <v>0.46</v>
-      </c>
-      <c r="G69" t="n" s="66">
-        <v>0.001</v>
-      </c>
-      <c r="H69" t="n" s="67">
-        <v>0.457</v>
-      </c>
-      <c r="I69" t="n" s="68">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="71">
-      <c r="B71" t="s" s="71">
-        <v>88</v>
+      <c r="A71" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -1752,11 +1693,6 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1764,7 +1700,7 @@
   <mergeCells>
     <mergeCell ref="B1:F4"/>
     <mergeCell ref="B47:E50"/>
-    <mergeCell ref="B71:E74"/>
+    <mergeCell ref="B70:E73"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
